--- a/test2.xlsx
+++ b/test2.xlsx
@@ -414,14 +414,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -432,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B2"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,9 +519,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>haha</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>二两</t>
+          <t>haha</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>haha</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>haha</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>haha</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>haha</t>
         </is>
       </c>
     </row>
